--- a/products/3.xlsx
+++ b/products/3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -21,23 +21,23 @@
     <t>А.ФЕН 1</t>
   </si>
   <si>
-    <t>Оффлайн ТВ 2 плитки</t>
-  </si>
-  <si>
-    <t>Оффлайн ТВ 3 плитки</t>
-  </si>
-  <si>
     <t>Альпийские камни 0.5</t>
   </si>
   <si>
     <t>Требуется КУРЬЕР</t>
   </si>
+  <si>
+    <t>Альпийские камни 0.33</t>
+  </si>
+  <si>
+    <t>Оффлайн ТВ 3 плитки</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -195,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -370,19 +372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,48 +395,48 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3400</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>162</v>
+      <c r="B3">
+        <v>1650</v>
+      </c>
+      <c r="C3">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3400</v>
-      </c>
-      <c r="C3">
-        <v>180</v>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1650</v>
-      </c>
-      <c r="C4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5">
-        <v>10000</v>
+        <v>1350</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -444,12 +446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -457,12 +459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/products/3.xlsx
+++ b/products/3.xlsx
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>А.ФЕН 1</t>
-  </si>
-  <si>
-    <t>Альпийские камни 0.5</t>
   </si>
   <si>
     <t>Требуется КУРЬЕР</t>
   </si>
   <si>
-    <t>Альпийские камни 0.33</t>
+    <t>Оффлайн ТВ 10 плиток</t>
   </si>
   <si>
-    <t>Оффлайн ТВ 3 плитки</t>
+    <t>Оффлайн ТВ 20 плитки</t>
   </si>
 </sst>
 </file>
@@ -373,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,24 +394,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3400</v>
+        <v>10000</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1650</v>
+        <v>20000</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,21 +419,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1350</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
